--- a/src/main/java/org/iitp/mmp/patient/pages/UsernamePwd.xlsx
+++ b/src/main/java/org/iitp/mmp/patient/pages/UsernamePwd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sinhapra/Documents/seema/IItWorkforce/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sinhapra/eclipse-workspace/MMPproject/src/main/java/org/iitp/mmp/patient/pages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7C2C7FA-D57B-574F-897A-7BCDB43DC6CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE4520F-87C3-2D4B-B02F-4D17438CA7C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{A3BC6BD8-9488-C94F-8B9F-E5489BBBA46C}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
